--- a/src/analysis_examples/circadb/results_jtk/cosinor_10388488_fam101b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10388488_fam101b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2585614857076697, 0.3760222943711776]</t>
+          <t>[0.2584795399315864, 0.3761042401472609]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.428712786439746e-10</v>
+        <v>2.490891937156903e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.428712786439746e-10</v>
+        <v>2.490891937156903e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.182421259008771</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3887494450362523, 0.4538227117494582]</t>
+          <t>[0.38876134149214975, 0.45381081529356077]</t>
         </is>
       </c>
       <c r="U2" t="n">
